--- a/PURCHASE REQUEST- FINAL-2026.xlsx
+++ b/PURCHASE REQUEST- FINAL-2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jajrc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F9EB11-69A1-4137-A279-4DBAC6A23495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749B3415-48E2-45CC-8E5A-8F3DDC8A6790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{12883BA9-6193-420F-A7B8-9CC9AD92A785}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>JAJr CONSTRUCTION</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>PR# : Initials- Year-Month-Seq. No.</t>
+  </si>
+  <si>
+    <t>Order No.</t>
   </si>
 </sst>
 </file>
@@ -648,7 +651,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -735,81 +738,90 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -837,15 +849,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -888,83 +891,86 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1430,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682B4F3E-6A91-44C6-8D89-1D0F4A92FC41}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -1445,106 +1451,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="54" t="s">
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="57"/>
+      <c r="F5" s="108"/>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="58"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="109"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="59"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="110"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="111"/>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="73" t="s">
@@ -1593,188 +1601,188 @@
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
       <c r="E15" s="14"/>
       <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="14"/>
       <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="14"/>
       <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="18"/>
       <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="19"/>
       <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="18"/>
       <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="14"/>
       <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="19"/>
       <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="18"/>
       <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="14"/>
       <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="14"/>
       <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="21"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="22"/>
       <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="98" t="s">
+      <c r="A30" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="99"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="104"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="52"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="101"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="105"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="53"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="106" t="s">
+      <c r="A32" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="107"/>
-      <c r="C32" s="107"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="107" t="s">
+      <c r="E32" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="108"/>
+      <c r="F32" s="56"/>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="109"/>
-      <c r="B33" s="110"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="111" t="s">
+      <c r="A33" s="57"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="111" t="s">
+      <c r="E33" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="109"/>
-      <c r="B34" s="110"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="112"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="60"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="91" t="s">
+      <c r="E35" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="92"/>
+      <c r="F35" s="40"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="26"/>
@@ -1789,15 +1797,15 @@
       <c r="F37" s="31"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="93"/>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
       <c r="F38" s="31"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="95"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
       <c r="F39" s="31"/>
     </row>
     <row r="40" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -1810,6 +1818,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="A38:C38"/>
@@ -1822,37 +1861,6 @@
     <mergeCell ref="A33:C34"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="E33:F34"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
